--- a/tables/Pendragon.xlsx
+++ b/tables/Pendragon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3697A8D-AAF3-4167-BF66-53BE4EC3A33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E9622-B568-4513-88C1-33968E9249DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12465" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>Feature</t>
   </si>
@@ -175,9 +175,6 @@
     <t>User Accessability</t>
   </si>
   <si>
-    <t>Flexibility to configure in a logical order for field entry (e.g., nested desgin)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Audit trails </t>
     </r>
@@ -459,17 +456,184 @@
     <t>Price (Option 2)</t>
   </si>
   <si>
-    <t>Can provide tracking</t>
+    <t>Drop down option, radio buttons (selection list), look up list can reference another form.</t>
+  </si>
+  <si>
+    <t>Also, can get more sophisticated with scripting.  Logic of survey where subsequent question are based on the responses of earlier questions.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Unless more complex forms required, and this would require Java scripting</t>
+  </si>
+  <si>
+    <t>Pendragon Server software can be either Cloud-based or 'On-premise'.</t>
+  </si>
+  <si>
+    <t>Default form is .csv</t>
+  </si>
+  <si>
+    <t>Not standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud upload is done manually as a separate step; separate mode from the Form/data entry mode.</t>
+  </si>
+  <si>
+    <t>Azure is FedRAMP certified; but Pendragon use is not certified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud version -  Azure (central US); On-premise (users server)  </t>
+  </si>
+  <si>
+    <t>U.S.A.</t>
+  </si>
+  <si>
+    <t>Android systems provide more flexibility for customization (iOS requires certifications)</t>
+  </si>
+  <si>
+    <t>No drawing option integrated in Pendration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo integration supported for both OS </t>
+  </si>
+  <si>
+    <t>Actually only works in off line mode.  When the data transfer synch occurs, one is out of the Forms entry mode.</t>
+  </si>
+  <si>
+    <t>Only android feature can provide tracking.  Some trig functions available.  Theoretically could calculate distance using 'native' Pendragon scripting; but could also use Java scripting to develop a more advance calculation (e.g., survey distance)</t>
+  </si>
+  <si>
+    <t>Flexibility to configure in a logical order for field entry (e.g., nested design)</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>No further information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pendragon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Forms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is a software as a service (SaaS) cloud application paid via monthly subscription based on the number of reserved users. However, an On Premise version is also offered for organizations who cannot or do not want to use a cloud-based solution.</t>
+    </r>
+  </si>
+  <si>
+    <t>Price (Option 3)</t>
+  </si>
+  <si>
+    <t>Cloud Standard: 10-24 Users; Storage 5GB</t>
+  </si>
+  <si>
+    <t>Cloud Professional: 25-99 Users; Storage 10GB</t>
+  </si>
+  <si>
+    <t>Cloud Essentials: 2-9 Users; Storage
+1 GB</t>
+  </si>
+  <si>
+    <t>$40/mo/2 users</t>
+  </si>
+  <si>
+    <t>$260/mo/14 users</t>
+  </si>
+  <si>
+    <t>$560/mo/28 users</t>
+  </si>
+  <si>
+    <t>Price (Option 5)</t>
+  </si>
+  <si>
+    <t>https://pendragonforms.com/pendragon_pricing_on_premise.html</t>
+  </si>
+  <si>
+    <t>On-premise option allows organizations with restrictive IT policies or requirements for tighter integration to install on their local servers.</t>
+  </si>
+  <si>
+    <t>Pendragon "QuickStart" Our support specialists will guide you through the initial steps of converting your paper forms to digital forms so that you can begin collecting data in minutes.</t>
+  </si>
+  <si>
+    <t>Not provided</t>
+  </si>
+  <si>
+    <t>Dan Phillips (Pendragon) suggests that Pendragon falls into the middle of the array of e-device software options: between the very simple, quick menu driven and completely customized form developed from scratch using base coding languages.</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Three different types of users.  User can only get in from the interface on the device and cannot design or change the data collection form;  Designer can design forms but cannot control users;  Admin and do all of it.  Completed forms can be assigned to groups and users can be added to have access to these forms.</t>
+  </si>
+  <si>
+    <t>Voice to text can be used for text fields</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Custom API connections are available which could support user-developed version control routines.</t>
+  </si>
+  <si>
+    <t>Pendragon saves the form in a relational database on MySQLdatabase server.  Further processes would be needed to download and transfer these relational tables to the user/project database. Custom API connections are available which could support integration with user/project database.</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>Establishing communication to external sensors would require Pendragon tech time/fees; apparently they have done this a couple of times.</t>
+  </si>
+  <si>
+    <t>Web-based only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +734,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5E5E5E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF5E5E5E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -592,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -651,6 +848,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEDC525-B77D-4397-8B91-1C5526620A5B}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A15" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1016,10 +1238,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,7 +1249,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,6 +1265,12 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,7 +1278,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,6 +1291,9 @@
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1062,9 +1302,15 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1072,12 +1318,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1087,6 +1339,12 @@
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,21 +1354,33 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1120,6 +1390,9 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -1129,6 +1402,12 @@
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,13 +1417,25 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1182,72 +1473,97 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="20"/>
       <c r="F7" s="5"/>
@@ -1255,27 +1571,44 @@
     </row>
     <row r="8" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1288,14 +1621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF5D6FA-27AF-4377-9AE3-FE0575D1CE52}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="39.140625" customWidth="1"/>
     <col min="5" max="5" width="34.140625" customWidth="1"/>
@@ -1310,88 +1643,112 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D3" s="16"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
@@ -1404,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF90FC-7D54-4396-BEBF-836B30C262EA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,16 +1776,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,12 +1796,21 @@
     </row>
     <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>53</v>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,17 +1820,32 @@
     </row>
     <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1478,14 +1859,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
@@ -1495,54 +1876,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
   </sheetData>
@@ -1553,17 +1950,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DAF0C1-5840-4498-93BE-7596EB0B3995}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="21" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="46.140625" customWidth="1"/>
   </cols>
@@ -1576,61 +1973,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="25">
+        <v>3950</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="19"/>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tables/Pendragon.xlsx
+++ b/tables/Pendragon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E9622-B568-4513-88C1-33968E9249DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCDA42D-31B4-450D-AE96-1C51A4AABBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Permissions Management</t>
   </si>
   <si>
-    <t>Font adjustment/Speak-to-text</t>
-  </si>
-  <si>
     <t>Other IEP Survey needs</t>
   </si>
   <si>
@@ -623,6 +620,9 @@
   </si>
   <si>
     <t>Web-based only</t>
+  </si>
+  <si>
+    <t>Font adjustment/ Speak-to-text</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -852,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -867,7 +867,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1196,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEDC525-B77D-4397-8B91-1C5526620A5B}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,10 +1237,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,13 +1248,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1278,10 +1277,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1291,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,10 +1302,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1323,13 +1322,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,10 +1339,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -1355,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1363,79 +1362,79 @@
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1473,96 +1472,96 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="20"/>
@@ -1571,44 +1570,44 @@
     </row>
     <row r="8" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1643,82 +1642,82 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="16"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1726,28 +1725,28 @@
     </row>
     <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1761,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF90FC-7D54-4396-BEBF-836B30C262EA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1776,16 +1775,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,21 +1795,21 @@
     </row>
     <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1820,24 +1819,24 @@
     </row>
     <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1845,7 +1844,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1876,16 +1875,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
@@ -1903,10 +1902,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -1915,7 +1914,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1924,10 +1923,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,10 +1934,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -1973,26 +1972,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
@@ -2001,13 +2000,13 @@
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2016,13 +2015,13 @@
     </row>
     <row r="4" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2031,16 +2030,16 @@
     </row>
     <row r="5" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="25">
         <v>3950</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2048,7 +2047,7 @@
     </row>
     <row r="6" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="26"/>
       <c r="D6" s="4"/>
@@ -2058,17 +2057,17 @@
     </row>
     <row r="7" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
+      <c r="B8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="19"/>
